--- a/Eindwerk KostprijsberekeningWebShop.xlsx
+++ b/Eindwerk KostprijsberekeningWebShop.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="d:\Users\Eigenaar\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\wamp64\www\comicshop-eindwerk\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -466,7 +466,7 @@
   <dimension ref="A1:O46"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -548,7 +548,7 @@
         <v>6</v>
       </c>
       <c r="E4" s="3">
-        <v>43.75</v>
+        <v>35</v>
       </c>
       <c r="F4" s="3"/>
       <c r="I4" s="1"/>
@@ -613,7 +613,7 @@
         <v>8</v>
       </c>
       <c r="C8" s="14">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D8" s="3"/>
       <c r="E8" s="3"/>
@@ -656,7 +656,7 @@
       </c>
       <c r="C10" s="14">
         <f>C8*C9</f>
-        <v>480</v>
+        <v>420</v>
       </c>
       <c r="D10" s="3"/>
       <c r="E10" s="3"/>
@@ -786,7 +786,7 @@
       </c>
       <c r="C17" s="3">
         <f>E4*C10</f>
-        <v>21000</v>
+        <v>14700</v>
       </c>
       <c r="D17" s="3"/>
       <c r="E17" s="3"/>
@@ -858,8 +858,8 @@
         <v>14</v>
       </c>
       <c r="C21" s="3">
-        <f>C17+C18+C19</f>
-        <v>21000</v>
+        <f>C17</f>
+        <v>14700</v>
       </c>
       <c r="E21" s="3"/>
       <c r="F21" s="1"/>
@@ -910,7 +910,7 @@
       </c>
       <c r="C24" s="11">
         <f>C21+((C21/100)*E24)</f>
-        <v>25410</v>
+        <v>17787</v>
       </c>
       <c r="D24" s="12" t="s">
         <v>16</v>

--- a/Eindwerk KostprijsberekeningWebShop.xlsx
+++ b/Eindwerk KostprijsberekeningWebShop.xlsx
@@ -466,7 +466,7 @@
   <dimension ref="A1:O46"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -634,7 +634,7 @@
         <v>9</v>
       </c>
       <c r="C9" s="14">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="D9" s="3"/>
       <c r="E9" s="3"/>
@@ -656,7 +656,7 @@
       </c>
       <c r="C10" s="14">
         <f>C8*C9</f>
-        <v>420</v>
+        <v>441</v>
       </c>
       <c r="D10" s="3"/>
       <c r="E10" s="3"/>
@@ -786,7 +786,7 @@
       </c>
       <c r="C17" s="3">
         <f>E4*C10</f>
-        <v>14700</v>
+        <v>15435</v>
       </c>
       <c r="D17" s="3"/>
       <c r="E17" s="3"/>
@@ -859,7 +859,7 @@
       </c>
       <c r="C21" s="3">
         <f>C17</f>
-        <v>14700</v>
+        <v>15435</v>
       </c>
       <c r="E21" s="3"/>
       <c r="F21" s="1"/>
@@ -910,7 +910,7 @@
       </c>
       <c r="C24" s="11">
         <f>C21+((C21/100)*E24)</f>
-        <v>17787</v>
+        <v>18676.349999999999</v>
       </c>
       <c r="D24" s="12" t="s">
         <v>16</v>
